--- a/src/test/resources/org/sin/util/unittest/readFromJsonExcelFile.xlsx
+++ b/src/test/resources/org/sin/util/unittest/readFromJsonExcelFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\junbo\util\src\test\resources\com\sin\util\unittest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\junbo\util\src\test\resources\org\sin\util\unittest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244A478E-02C2-4BA2-BDA4-011FFB98CB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA393E0-6BA2-465A-9EFD-2D156F9E4C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>EXPECTED_INTEGER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,8 +93,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPECTED_CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "integer": 1,
+    "character": "c",
     "string": "hello",
     "list": [
         "hello",
@@ -114,16 +135,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "integer": 2,
+    "character": null,
     "string": "hello",
     "list": [
         "hello",
@@ -485,109 +499,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="26.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="39.5" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="5"/>
+    <col min="2" max="2" width="21.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="27.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="39.5" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
+    <row r="2" spans="1:10" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
